--- a/webScrapping/espn_scrapper/IPL/Kings XI Punjab/Mayank Agarwal.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Kings XI Punjab/Mayank Agarwal.xlsx
@@ -439,54 +439,54 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Nov 1 2020</v>
+        <v xml:space="preserve"> Sep 27 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C2" t="str">
-        <v>Super Kings won by 9 wickets (with 7 balls remaining)</v>
+        <v>Royals won by 4 wickets (with 3 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Kings XI Punjab</v>
       </c>
       <c r="E2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="F2" t="str">
         <v>Mayank Agarwal</v>
       </c>
       <c r="G2" t="str">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="H2" t="str">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I2" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="str">
-        <v>173.33</v>
+        <v>212.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 4 2020</v>
+        <v xml:space="preserve"> Sep 24 2020</v>
       </c>
       <c r="B3" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C3" t="str">
-        <v>Super Kings won by 10 wickets (with 14 balls remaining)</v>
+        <v>Kings XI won by 97 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Kings XI Punjab</v>
       </c>
       <c r="E3" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="F3" t="str">
         <v>Mayank Agarwal</v>
@@ -495,68 +495,68 @@
         <v>26</v>
       </c>
       <c r="H3" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="str">
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>136.84</v>
+        <v>130.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Sep 27 2020</v>
+        <v xml:space="preserve"> Nov 1 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C4" t="str">
-        <v>Royals won by 4 wickets (with 3 balls remaining)</v>
+        <v>Super Kings won by 9 wickets (with 7 balls remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Kings XI Punjab</v>
       </c>
       <c r="E4" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F4" t="str">
         <v>Mayank Agarwal</v>
       </c>
       <c r="G4" t="str">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="H4" t="str">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I4" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>212.00</v>
+        <v>173.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Sep 24 2020</v>
+        <v xml:space="preserve"> Oct 4 2020</v>
       </c>
       <c r="B5" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C5" t="str">
-        <v>Kings XI won by 97 runs</v>
+        <v>Super Kings won by 10 wickets (with 14 balls remaining)</v>
       </c>
       <c r="D5" t="str">
         <v>Kings XI Punjab</v>
       </c>
       <c r="E5" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F5" t="str">
         <v>Mayank Agarwal</v>
@@ -565,16 +565,16 @@
         <v>26</v>
       </c>
       <c r="H5" t="str">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="str">
         <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>130.00</v>
+        <v>136.84</v>
       </c>
     </row>
   </sheetData>
